--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D89641-3735-0046-9512-854C3084C910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD012E-0C52-46F8-84C7-AC44E7515D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18900" yWindow="6760" windowWidth="29820" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,153 +20,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
-  <si>
-    <t>带有强力攻击技能</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>米克尔</t>
   </si>
   <si>
     <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int&amp;group=c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int&amp;group=s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>##Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig.Name.1001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig.Name.1002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig.Name.1003</t>
-  </si>
-  <si>
-    <t>UnitConfig.Name.1004</t>
-  </si>
-  <si>
-    <t>米克尔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,38 +121,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,14 +131,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,41 +157,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -575,236 +486,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>178</v>
-      </c>
-      <c r="J4" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="B5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>278</v>
-      </c>
-      <c r="J5" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15">
-      <c r="B6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>178</v>
-      </c>
-      <c r="J6" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>278</v>
-      </c>
-      <c r="J7" s="6">
-        <v>78</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD012E-0C52-46F8-84C7-AC44E7515D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EA344-2BAF-4D32-BFC9-EE451A49FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillCollider" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -53,18 +54,82 @@
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Perfab</t>
+  </si>
+  <si>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>预制体路径</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>Unit/Skeleton/Prefabs/Skeleton.prefab</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>Skill/Skill_1000/Prefabs/SkillExecution_1000.prefab</t>
+  </si>
+  <si>
+    <t>激光炮</t>
+  </si>
+  <si>
+    <t>Skill/Skill_1001/Prefabs/SkillExecution_1001.prefab</t>
+  </si>
+  <si>
+    <t>暗火</t>
+  </si>
+  <si>
+    <t>Skill/Skill_1002/Prefabs/SkillExecution_1002.prefab</t>
+  </si>
+  <si>
+    <t>飞剑</t>
+  </si>
+  <si>
+    <t>Skill/Skill_1003/Prefabs/SkillExecution_1003.prefab</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Skill/Skill_1004/Prefabs/SkillExecution_1004.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +181,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -155,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -163,8 +250,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,10 +268,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{3E62C671-1757-4C05-BE02-1C163EC054B9}"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -499,10 +597,12 @@
     <col min="3" max="3" width="12.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="37" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -510,13 +610,29 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -524,13 +640,29 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -538,27 +670,66 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>178</v>
+      </c>
+      <c r="I4" s="1">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
     </row>
   </sheetData>
@@ -566,4 +737,209 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3471489-EF61-4436-B88B-9A371038C17A}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EA344-2BAF-4D32-BFC9-EE451A49FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C317F-5B2B-4250-BB70-023D9C4C26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -92,37 +92,43 @@
     <t>带有强力攻击技能</t>
   </si>
   <si>
-    <t>Unit/Skeleton/Prefabs/Skeleton.prefab</t>
-  </si>
-  <si>
     <t>炎爆</t>
   </si>
   <si>
-    <t>Skill/Skill_1000/Prefabs/SkillExecution_1000.prefab</t>
-  </si>
-  <si>
     <t>激光炮</t>
   </si>
   <si>
-    <t>Skill/Skill_1001/Prefabs/SkillExecution_1001.prefab</t>
-  </si>
-  <si>
     <t>暗火</t>
   </si>
   <si>
-    <t>Skill/Skill_1002/Prefabs/SkillExecution_1002.prefab</t>
-  </si>
-  <si>
     <t>飞剑</t>
   </si>
   <si>
-    <t>Skill/Skill_1003/Prefabs/SkillExecution_1003.prefab</t>
-  </si>
-  <si>
     <t>眩晕</t>
   </si>
   <si>
-    <t>Skill/Skill_1004/Prefabs/SkillExecution_1004.prefab</t>
+    <t>Skeleton/Prefabs/Skeleton.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1000/Prefabs/SkillExecution_1000.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1001/Prefabs/SkillExecution_1001.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1002/Prefabs/SkillExecution_1002.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1003/Prefabs/SkillExecution_1003.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1004/Prefabs/SkillExecution_1004.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -719,8 +725,8 @@
       <c r="I4" s="1">
         <v>68</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -743,11 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3471489-EF61-4436-B88B-9A371038C17A}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -852,14 +861,14 @@
         <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -871,14 +880,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -890,14 +899,14 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -909,14 +918,14 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -928,7 +937,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C317F-5B2B-4250-BB70-023D9C4C26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0111426-9CB4-49B5-92B8-493671EDC22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -111,23 +111,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1000/Prefabs/SkillExecution_1000.prefab</t>
+    <t>Skill_1000/Prefabs/SkillExecution_1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1001/Prefabs/SkillExecution_1001.prefab</t>
+    <t>Skill_1001/Prefabs/SkillExecution_1001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1002/Prefabs/SkillExecution_1002.prefab</t>
+    <t>Skill_1002/Prefabs/SkillExecution_1002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1003/Prefabs/SkillExecution_1003.prefab</t>
+    <t>Skill_1003/Prefabs/SkillExecution_1003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1004/Prefabs/SkillExecution_1004.prefab</t>
+    <t>Skill_1004/Prefabs/SkillExecution_1004</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
